--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -1,114 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>AP2.FUNDCAPITALCARRIEDFORWARD.LEVEL.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.NETOUTFLOWSTOTHENATIONALPENSIONSYSTEM.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.TOTAL.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.EQUITIESANDPARTICIPATIONSLISTED.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.EQUITIESANDPARTICIPATIONSUNLISTED.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.BONDSANDOTHERFIXEDINCOMESECURITIES.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.DERIVATIVEINSTRUMENTS.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.CASHANDBANKBALANCES.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.OTHERASSETS.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.PREPAIDEXPENSESANDACCRUEDINCOME.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.TOTALASSETS.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.DERIVATIVEINSTRUMENTSLIABILITIES.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.OTHERLIABILITIES.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.DEFERREDINCOMEANDACCRUEDEXPENSES.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.TOTALLIABILITIES.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.FUNDCAPITALCARRIEDFORWARD.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.NETPAYMENTSTOTHENATIONALPENSIONSYSTEM.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.NETRESULTFORTHEPERIOD.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.TOTALFUNDCAPITAL.FLOW.NONE.H.1@AP2</t>
-  </si>
-  <si>
-    <t>AP2.TOTALFUNDCAPITALANDLIABILITIES.FLOW.NONE.H.1@AP2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,120 +408,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AP2.FUNDCAPITALCARRIEDFORWARD.LEVEL.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AP2.NETOUTFLOWSTOTHENATIONALPENSIONSYSTEM.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AP2.TOTAL.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>AP2.EQUITIESANDPARTICIPATIONSLISTED.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AP2.EQUITIESANDPARTICIPATIONSUNLISTED.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AP2.BONDSANDOTHERFIXEDINCOMESECURITIES.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AP2.DERIVATIVEINSTRUMENTS.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>AP2.CASHANDBANKBALANCES.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AP2.OTHERASSETS.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>AP2.PREPAIDEXPENSESANDACCRUEDINCOME.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>AP2.TOTALASSETS.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>AP2.DERIVATIVEINSTRUMENTSLIABILITIES.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AP2.OTHERLIABILITIES.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>AP2.DEFERREDINCOMEANDACCRUEDEXPENSES.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>AP2.TOTALLIABILITIES.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>AP2.FUNDCAPITALCARRIEDFORWARD.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>AP2.NETPAYMENTSTOTHENATIONALPENSIONSYSTEM.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>AP2.NETRESULTFORTHEPERIOD.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>AP2.TOTALFUNDCAPITAL.FLOW.NONE.H.1@AP2</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>AP2.TOTALFUNDCAPITALANDLIABILITIES.FLOW.NONE.H.1@AP2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Fund capital carried forward</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Net outflows to the national pension system</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Net result for the year</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Equities and participations - Listed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Equities and participations - Unlisted</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Bonds and other fixed-income securities</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Derivative instruments</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Cash and bank balances</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Other assets</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Prepaid expenses and accrued income</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Total Assets</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Derivative instruments (liabilities)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Other liabilities</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Deferred income and accrued expenses</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Total liabilities</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Fund capital carried forward</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Net payments to the national pension system</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Net result for the period</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Total Fund capital</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>AP2 semi-annual: Balance - Total Fund capital and other Liabilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2025</v>
       </c>
-      <c r="B2">
-        <v>4.58884426040426E+17</v>
-      </c>
-      <c r="E2">
-        <v>1.84676178237182E+17</v>
-      </c>
-      <c r="F2">
-        <v>1.319701390101469E+17</v>
-      </c>
-      <c r="G2">
-        <v>246921714723</v>
-      </c>
-      <c r="L2">
-        <v>4.649704500024687E+17</v>
-      </c>
-      <c r="M2">
-        <v>254213438913</v>
-      </c>
-      <c r="P2">
-        <v>692141809852</v>
-      </c>
-      <c r="Q2">
-        <v>4.58884426040426E+17</v>
-      </c>
-      <c r="R2">
+      <c r="B3" t="n">
+        <v>458</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>184676</v>
+      </c>
+      <c r="F3" t="n">
+        <v>131970</v>
+      </c>
+      <c r="G3" t="n">
+        <v>132567</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4796</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7990</v>
+      </c>
+      <c r="J3" t="n">
+        <v>335</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2636</v>
+      </c>
+      <c r="L3" t="n">
+        <v>464970</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2542</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3644</v>
+      </c>
+      <c r="O3" t="n">
+        <v>735</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6921</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>458884</v>
+      </c>
+      <c r="R3" t="n">
         <v>-2410</v>
       </c>
-      <c r="S2">
-        <v>15752064834868</v>
-      </c>
-      <c r="T2">
-        <v>4.580494458224589E+17</v>
-      </c>
-      <c r="U2">
-        <v>4.580494458224589E+17</v>
+      <c r="S3" t="n">
+        <v>1575</v>
+      </c>
+      <c r="T3" t="n">
+        <v>458049</v>
+      </c>
+      <c r="U3" t="n">
+        <v>464970</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -627,67 +627,67 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B3" t="n">
-        <v>458</v>
+        <v>445.8</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.4</v>
+        <v>-0.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6</v>
+        <v>20.6</v>
       </c>
       <c r="E3" t="n">
-        <v>184676</v>
+        <v>178237</v>
       </c>
       <c r="F3" t="n">
-        <v>131970</v>
+        <v>139010</v>
       </c>
       <c r="G3" t="n">
-        <v>132567</v>
+        <v>121998</v>
       </c>
       <c r="H3" t="n">
-        <v>4796</v>
+        <v>4508</v>
       </c>
       <c r="I3" t="n">
-        <v>7990</v>
+        <v>3528</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
-        <v>2636</v>
+        <v>2373</v>
       </c>
       <c r="L3" t="n">
-        <v>464970</v>
+        <v>450002</v>
       </c>
       <c r="M3" t="n">
-        <v>2542</v>
+        <v>1343</v>
       </c>
       <c r="N3" t="n">
-        <v>3644</v>
+        <v>2325</v>
       </c>
       <c r="O3" t="n">
-        <v>735</v>
+        <v>512</v>
       </c>
       <c r="P3" t="n">
-        <v>6921</v>
+        <v>4180</v>
       </c>
       <c r="Q3" t="n">
-        <v>458884</v>
+        <v>426040</v>
       </c>
       <c r="R3" t="n">
-        <v>-2410</v>
+        <v>-866</v>
       </c>
       <c r="S3" t="n">
-        <v>1575</v>
+        <v>20648</v>
       </c>
       <c r="T3" t="n">
-        <v>458049</v>
+        <v>445822</v>
       </c>
       <c r="U3" t="n">
-        <v>464970</v>
+        <v>450002</v>
       </c>
     </row>
   </sheetData>

--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -627,67 +627,64 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="n">
-        <v>445.8</v>
+        <v>2023</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6</v>
+        <v>19.4</v>
       </c>
       <c r="E3" t="n">
-        <v>178237</v>
+        <v>162200</v>
       </c>
       <c r="F3" t="n">
-        <v>139010</v>
+        <v>134691</v>
       </c>
       <c r="G3" t="n">
-        <v>121998</v>
+        <v>128575</v>
       </c>
       <c r="H3" t="n">
-        <v>4508</v>
+        <v>976</v>
       </c>
       <c r="I3" t="n">
-        <v>3528</v>
+        <v>2407</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>2998</v>
       </c>
       <c r="K3" t="n">
-        <v>2373</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>450002</v>
+        <v>434347</v>
       </c>
       <c r="M3" t="n">
-        <v>1343</v>
+        <v>7362</v>
       </c>
       <c r="N3" t="n">
-        <v>2325</v>
+        <v>2510</v>
       </c>
       <c r="O3" t="n">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="P3" t="n">
-        <v>4180</v>
+        <v>10446</v>
       </c>
       <c r="Q3" t="n">
-        <v>426040</v>
+        <v>407112</v>
       </c>
       <c r="R3" t="n">
-        <v>-866</v>
+        <v>-2602</v>
       </c>
       <c r="S3" t="n">
-        <v>20648</v>
+        <v>19391</v>
       </c>
       <c r="T3" t="n">
-        <v>445822</v>
+        <v>423901</v>
       </c>
       <c r="U3" t="n">
-        <v>450002</v>
+        <v>434347</v>
       </c>
     </row>
   </sheetData>

--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -629,6 +629,9 @@
       <c r="A3" t="n">
         <v>2023</v>
       </c>
+      <c r="B3" t="n">
+        <v>407.1</v>
+      </c>
       <c r="C3" t="n">
         <v>-2.6</v>
       </c>

--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -627,67 +627,67 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>407.1</v>
+        <v>386.2</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.6</v>
+        <v>-4.2</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4</v>
+        <v>39.2</v>
       </c>
       <c r="E3" t="n">
-        <v>162200</v>
+        <v>187888</v>
       </c>
       <c r="F3" t="n">
-        <v>134691</v>
+        <v>95965</v>
       </c>
       <c r="G3" t="n">
-        <v>128575</v>
+        <v>134032</v>
       </c>
       <c r="H3" t="n">
-        <v>976</v>
+        <v>1274</v>
       </c>
       <c r="I3" t="n">
-        <v>2407</v>
+        <v>4067</v>
       </c>
       <c r="J3" t="n">
-        <v>2998</v>
+        <v>2192</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>1778</v>
       </c>
       <c r="L3" t="n">
-        <v>434347</v>
+        <v>427196</v>
       </c>
       <c r="M3" t="n">
-        <v>7362</v>
+        <v>3285</v>
       </c>
       <c r="N3" t="n">
-        <v>2510</v>
+        <v>2556</v>
       </c>
       <c r="O3" t="n">
-        <v>574</v>
+        <v>145</v>
       </c>
       <c r="P3" t="n">
-        <v>10446</v>
+        <v>5986</v>
       </c>
       <c r="Q3" t="n">
-        <v>407112</v>
+        <v>386224</v>
       </c>
       <c r="R3" t="n">
-        <v>-2602</v>
+        <v>-4220</v>
       </c>
       <c r="S3" t="n">
-        <v>19391</v>
+        <v>39205</v>
       </c>
       <c r="T3" t="n">
-        <v>423901</v>
+        <v>421210</v>
       </c>
       <c r="U3" t="n">
-        <v>434347</v>
+        <v>427196</v>
       </c>
     </row>
   </sheetData>

--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -627,67 +627,67 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>386.2</v>
+        <v>458</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.2</v>
+        <v>-2.4</v>
       </c>
       <c r="D3" t="n">
-        <v>39.2</v>
+        <v>1.6</v>
       </c>
       <c r="E3" t="n">
-        <v>187888</v>
+        <v>184676</v>
       </c>
       <c r="F3" t="n">
-        <v>95965</v>
+        <v>131970</v>
       </c>
       <c r="G3" t="n">
-        <v>134032</v>
+        <v>132567</v>
       </c>
       <c r="H3" t="n">
-        <v>1274</v>
+        <v>4796</v>
       </c>
       <c r="I3" t="n">
-        <v>4067</v>
+        <v>7990</v>
       </c>
       <c r="J3" t="n">
-        <v>2192</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>1778</v>
+        <v>2636</v>
       </c>
       <c r="L3" t="n">
-        <v>427196</v>
+        <v>464970</v>
       </c>
       <c r="M3" t="n">
-        <v>3285</v>
+        <v>2542</v>
       </c>
       <c r="N3" t="n">
-        <v>2556</v>
+        <v>3644</v>
       </c>
       <c r="O3" t="n">
-        <v>145</v>
+        <v>735</v>
       </c>
       <c r="P3" t="n">
-        <v>5986</v>
+        <v>6921</v>
       </c>
       <c r="Q3" t="n">
-        <v>386224</v>
+        <v>458884</v>
       </c>
       <c r="R3" t="n">
-        <v>-4220</v>
+        <v>-2410</v>
       </c>
       <c r="S3" t="n">
-        <v>39205</v>
+        <v>1575</v>
       </c>
       <c r="T3" t="n">
-        <v>421210</v>
+        <v>458049</v>
       </c>
       <c r="U3" t="n">
-        <v>427196</v>
+        <v>464970</v>
       </c>
     </row>
   </sheetData>

--- a/output/latest/AP2_Financial_Data_latest.xlsx
+++ b/output/latest/AP2_Financial_Data_latest.xlsx
@@ -627,67 +627,67 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>458</v>
+        <v>352.4</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.4</v>
+        <v>-3.3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>184676</v>
+        <v>-2043</v>
       </c>
       <c r="F3" t="n">
-        <v>131970</v>
+        <v>2781</v>
       </c>
       <c r="G3" t="n">
-        <v>132567</v>
+        <v>134861</v>
       </c>
       <c r="H3" t="n">
-        <v>4796</v>
+        <v>1349</v>
       </c>
       <c r="I3" t="n">
-        <v>7990</v>
+        <v>2345</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>1481</v>
       </c>
       <c r="K3" t="n">
-        <v>2636</v>
+        <v>1772</v>
       </c>
       <c r="L3" t="n">
-        <v>464970</v>
+        <v>358884</v>
       </c>
       <c r="M3" t="n">
-        <v>2542</v>
+        <v>4281</v>
       </c>
       <c r="N3" t="n">
-        <v>3644</v>
+        <v>1631</v>
       </c>
       <c r="O3" t="n">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="P3" t="n">
-        <v>6921</v>
+        <v>6447</v>
       </c>
       <c r="Q3" t="n">
-        <v>458884</v>
+        <v>345931</v>
       </c>
       <c r="R3" t="n">
-        <v>-2410</v>
+        <v>-3320</v>
       </c>
       <c r="S3" t="n">
-        <v>1575</v>
+        <v>9826</v>
       </c>
       <c r="T3" t="n">
-        <v>458049</v>
+        <v>352437</v>
       </c>
       <c r="U3" t="n">
-        <v>464970</v>
+        <v>358884</v>
       </c>
     </row>
   </sheetData>
